--- a/Data/MHV-1_Trial-1_Stage-2_Encoded_KWALDSTEIN_202010042110.xlsx
+++ b/Data/MHV-1_Trial-1_Stage-2_Encoded_KWALDSTEIN_202010042110.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60599F-6300-4A9A-A028-3D2F3E2432C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C697DCBD-4001-4620-8D80-0099739C5B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4350" windowWidth="21600" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="6090" windowWidth="21600" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
